--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N2">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P2">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q2">
-        <v>17.18547812172311</v>
+        <v>52.99912578636</v>
       </c>
       <c r="R2">
-        <v>154.669303095508</v>
+        <v>476.99213207724</v>
       </c>
       <c r="S2">
-        <v>0.0005707550072202342</v>
+        <v>0.0008227945657781022</v>
       </c>
       <c r="T2">
-        <v>0.0005707550072202342</v>
+        <v>0.0008227945657781021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P3">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q3">
-        <v>23.49490100789822</v>
+        <v>39.05615455701055</v>
       </c>
       <c r="R3">
-        <v>211.454109071084</v>
+        <v>351.505391013095</v>
       </c>
       <c r="S3">
-        <v>0.0007803002220491665</v>
+        <v>0.0006063343734995785</v>
       </c>
       <c r="T3">
-        <v>0.0007803002220491666</v>
+        <v>0.0006063343734995782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N4">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O4">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P4">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q4">
-        <v>321.3496698223231</v>
+        <v>951.6230620954516</v>
       </c>
       <c r="R4">
-        <v>2892.147028400908</v>
+        <v>8564.607558859065</v>
       </c>
       <c r="S4">
-        <v>0.01067249522070731</v>
+        <v>0.01477364527327293</v>
       </c>
       <c r="T4">
-        <v>0.01067249522070731</v>
+        <v>0.01477364527327293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N5">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P5">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q5">
-        <v>10.35439708612667</v>
+        <v>9.023632830590557</v>
       </c>
       <c r="R5">
-        <v>93.18957377514002</v>
+        <v>81.212695475315</v>
       </c>
       <c r="S5">
-        <v>0.0003438847579214657</v>
+        <v>0.0001400890287608781</v>
       </c>
       <c r="T5">
-        <v>0.0003438847579214658</v>
+        <v>0.0001400890287608781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N6">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P6">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q6">
-        <v>146.9050855527893</v>
+        <v>243.966361466335</v>
       </c>
       <c r="R6">
-        <v>1322.145769975104</v>
+        <v>2195.697253197015</v>
       </c>
       <c r="S6">
-        <v>0.004878933979694505</v>
+        <v>0.003787500142102685</v>
       </c>
       <c r="T6">
-        <v>0.004878933979694506</v>
+        <v>0.003787500142102684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N7">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O7">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P7">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q7">
-        <v>218.0766536649684</v>
+        <v>359.9401205126494</v>
       </c>
       <c r="R7">
-        <v>1962.689882984716</v>
+        <v>3239.461084613845</v>
       </c>
       <c r="S7">
-        <v>0.007242646445767532</v>
+        <v>0.005587955853406602</v>
       </c>
       <c r="T7">
-        <v>0.007242646445767533</v>
+        <v>0.005587955853406601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N8">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P8">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q8">
-        <v>459.9194313787107</v>
+        <v>853.243491693528</v>
       </c>
       <c r="R8">
-        <v>4139.274882408396</v>
+        <v>7679.191425241753</v>
       </c>
       <c r="S8">
-        <v>0.01527460082972438</v>
+        <v>0.01324633374295483</v>
       </c>
       <c r="T8">
-        <v>0.01527460082972438</v>
+        <v>0.01324633374295483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P9">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q9">
         <v>628.7728182664144</v>
@@ -1013,10 +1013,10 @@
         <v>5658.955364397731</v>
       </c>
       <c r="S9">
-        <v>0.02088247018137378</v>
+        <v>0.009761497954966926</v>
       </c>
       <c r="T9">
-        <v>0.02088247018137379</v>
+        <v>0.009761497954966924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N10">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O10">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P10">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q10">
-        <v>8599.99101401786</v>
+        <v>15320.36938781696</v>
       </c>
       <c r="R10">
-        <v>77399.91912616075</v>
+        <v>137883.3244903526</v>
       </c>
       <c r="S10">
-        <v>0.285618351641622</v>
+        <v>0.2378438604595469</v>
       </c>
       <c r="T10">
-        <v>0.285618351641622</v>
+        <v>0.2378438604595469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N11">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P11">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q11">
-        <v>277.1053785289317</v>
+        <v>145.2732638490986</v>
       </c>
       <c r="R11">
-        <v>2493.948406760385</v>
+        <v>1307.459374641887</v>
       </c>
       <c r="S11">
-        <v>0.009203077226180089</v>
+        <v>0.002255321201517805</v>
       </c>
       <c r="T11">
-        <v>0.009203077226180089</v>
+        <v>0.002255321201517804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N12">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P12">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q12">
-        <v>3931.488139900837</v>
+        <v>3927.663089244282</v>
       </c>
       <c r="R12">
-        <v>35383.39325910753</v>
+        <v>35348.96780319854</v>
       </c>
       <c r="S12">
-        <v>0.1305705041071258</v>
+        <v>0.06097571984610238</v>
       </c>
       <c r="T12">
-        <v>0.1305705041071258</v>
+        <v>0.06097571984610237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N13">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O13">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P13">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q13">
-        <v>5836.188544779801</v>
+        <v>5794.747756119453</v>
       </c>
       <c r="R13">
-        <v>52525.69690301822</v>
+        <v>52152.72980507508</v>
       </c>
       <c r="S13">
-        <v>0.1938284062521303</v>
+        <v>0.08996161527285065</v>
       </c>
       <c r="T13">
-        <v>0.1938284062521303</v>
+        <v>0.08996161527285064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N14">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P14">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q14">
-        <v>99.00475757415755</v>
+        <v>679.2821464075921</v>
       </c>
       <c r="R14">
-        <v>891.042818167418</v>
+        <v>6113.539317668328</v>
       </c>
       <c r="S14">
-        <v>0.003288093629041848</v>
+        <v>0.0105456392044507</v>
       </c>
       <c r="T14">
-        <v>0.003288093629041848</v>
+        <v>0.01054563920445069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.557081</v>
       </c>
       <c r="O15">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P15">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q15">
-        <v>135.3530557625571</v>
+        <v>500.5770964007232</v>
       </c>
       <c r="R15">
-        <v>1218.177501863014</v>
+        <v>4505.193867606508</v>
       </c>
       <c r="S15">
-        <v>0.004495274078024498</v>
+        <v>0.00777130015939804</v>
       </c>
       <c r="T15">
-        <v>0.004495274078024499</v>
+        <v>0.007771300159398037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N16">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O16">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P16">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q16">
-        <v>1851.280827449257</v>
+        <v>12196.81544931309</v>
       </c>
       <c r="R16">
-        <v>16661.52744704332</v>
+        <v>109771.3390438178</v>
       </c>
       <c r="S16">
-        <v>0.06148375940159986</v>
+        <v>0.1893516793455482</v>
       </c>
       <c r="T16">
-        <v>0.06148375940159988</v>
+        <v>0.1893516793455481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N17">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P17">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q17">
-        <v>59.65121052074334</v>
+        <v>115.6545997053992</v>
       </c>
       <c r="R17">
-        <v>536.8608946866901</v>
+        <v>1040.891397348593</v>
       </c>
       <c r="S17">
-        <v>0.001981104444712936</v>
+        <v>0.00179550086407906</v>
       </c>
       <c r="T17">
-        <v>0.001981104444712936</v>
+        <v>0.00179550086407906</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N18">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P18">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q18">
-        <v>846.3135141512427</v>
+        <v>3126.881645862037</v>
       </c>
       <c r="R18">
-        <v>7616.821627361184</v>
+        <v>28141.93481275833</v>
       </c>
       <c r="S18">
-        <v>0.02810731668090141</v>
+        <v>0.04854384271200016</v>
       </c>
       <c r="T18">
-        <v>0.02810731668090142</v>
+        <v>0.04854384271200014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N19">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O19">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P19">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q19">
-        <v>1256.329679963476</v>
+        <v>4613.300578308128</v>
       </c>
       <c r="R19">
-        <v>11306.96711967129</v>
+        <v>41519.70520477316</v>
       </c>
       <c r="S19">
-        <v>0.04172455665648087</v>
+        <v>0.07162002372329321</v>
       </c>
       <c r="T19">
-        <v>0.04172455665648088</v>
+        <v>0.07162002372329319</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N20">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P20">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q20">
-        <v>48.854626137994</v>
+        <v>26.563141627776</v>
       </c>
       <c r="R20">
-        <v>439.691635241946</v>
+        <v>239.068274649984</v>
       </c>
       <c r="S20">
-        <v>0.00162253399623989</v>
+        <v>0.0004123843225156197</v>
       </c>
       <c r="T20">
-        <v>0.001622533996239891</v>
+        <v>0.0004123843225156197</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.557081</v>
       </c>
       <c r="O21">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P21">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q21">
-        <v>66.79096134306199</v>
+        <v>19.574929766128</v>
       </c>
       <c r="R21">
-        <v>601.118652087558</v>
+        <v>176.174367895152</v>
       </c>
       <c r="S21">
-        <v>0.002218226071663317</v>
+        <v>0.0003038945567136742</v>
       </c>
       <c r="T21">
-        <v>0.002218226071663317</v>
+        <v>0.0003038945567136741</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N22">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O22">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P22">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q22">
-        <v>913.5281467026939</v>
+        <v>476.9531157286559</v>
       </c>
       <c r="R22">
-        <v>8221.753320324246</v>
+        <v>4292.578041557904</v>
       </c>
       <c r="S22">
-        <v>0.03033961349659003</v>
+        <v>0.007404545375604485</v>
       </c>
       <c r="T22">
-        <v>0.03033961349659004</v>
+        <v>0.007404545375604484</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N23">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P23">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q23">
-        <v>29.43532876677</v>
+        <v>4.522641332656</v>
       </c>
       <c r="R23">
-        <v>264.91795890093</v>
+        <v>40.703771993904</v>
       </c>
       <c r="S23">
-        <v>0.000977590565930864</v>
+        <v>7.021256777843853E-05</v>
       </c>
       <c r="T23">
-        <v>0.0009775905659308642</v>
+        <v>7.021256777843852E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N24">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P24">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q24">
-        <v>417.6196310406719</v>
+        <v>122.275847306736</v>
       </c>
       <c r="R24">
-        <v>3758.576679366048</v>
+        <v>1100.482625760624</v>
       </c>
       <c r="S24">
-        <v>0.01386976224005289</v>
+        <v>0.001898293626492006</v>
       </c>
       <c r="T24">
-        <v>0.01386976224005289</v>
+        <v>0.001898293626492006</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N25">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O25">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P25">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q25">
-        <v>619.9451251088379</v>
+        <v>180.401851102928</v>
       </c>
       <c r="R25">
-        <v>5579.506125979542</v>
+        <v>1623.616659926352</v>
       </c>
       <c r="S25">
-        <v>0.02058928950660851</v>
+        <v>0.002800681342219436</v>
       </c>
       <c r="T25">
-        <v>0.02058928950660852</v>
+        <v>0.002800681342219436</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N26">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O26">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P26">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q26">
-        <v>40.08632918537211</v>
+        <v>71.79438120659999</v>
       </c>
       <c r="R26">
-        <v>360.776962668349</v>
+        <v>646.1494308594</v>
       </c>
       <c r="S26">
-        <v>0.001331325956809383</v>
+        <v>0.001114584926330897</v>
       </c>
       <c r="T26">
-        <v>0.001331325956809383</v>
+        <v>0.001114584926330897</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.557081</v>
       </c>
       <c r="O27">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P27">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q27">
-        <v>54.80349917002522</v>
+        <v>52.90676793486944</v>
       </c>
       <c r="R27">
-        <v>493.2314925302269</v>
+        <v>476.1609114138249</v>
       </c>
       <c r="S27">
-        <v>0.001820104820065698</v>
+        <v>0.0008213607395180295</v>
       </c>
       <c r="T27">
-        <v>0.001820104820065699</v>
+        <v>0.0008213607395180293</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N28">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O28">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P28">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q28">
-        <v>749.5705709709219</v>
+        <v>1289.100298757308</v>
       </c>
       <c r="R28">
-        <v>6746.135138738299</v>
+        <v>11601.90268881577</v>
       </c>
       <c r="S28">
-        <v>0.02489434123487092</v>
+        <v>0.02001287200162492</v>
       </c>
       <c r="T28">
-        <v>0.02489434123487092</v>
+        <v>0.02001287200162491</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N29">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O29">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P29">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q29">
-        <v>24.15235509717167</v>
+        <v>12.22371361216944</v>
       </c>
       <c r="R29">
-        <v>217.371195874545</v>
+        <v>110.013422509525</v>
       </c>
       <c r="S29">
-        <v>0.0008021352394290969</v>
+        <v>0.000189769264766048</v>
       </c>
       <c r="T29">
-        <v>0.000802135239429097</v>
+        <v>0.000189769264766048</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N30">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O30">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P30">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q30">
-        <v>342.6663824401013</v>
+        <v>330.4849598332249</v>
       </c>
       <c r="R30">
-        <v>3083.997441960912</v>
+        <v>2974.364638499024</v>
       </c>
       <c r="S30">
-        <v>0.01138045460233734</v>
+        <v>0.005130673855230914</v>
       </c>
       <c r="T30">
-        <v>0.01138045460233735</v>
+        <v>0.005130673855230914</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N31">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O31">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P31">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q31">
-        <v>508.6790407889914</v>
+        <v>487.5868769572305</v>
       </c>
       <c r="R31">
-        <v>4578.111367100923</v>
+        <v>4388.281892615075</v>
       </c>
       <c r="S31">
-        <v>0.01689397918067306</v>
+        <v>0.007569631135470071</v>
       </c>
       <c r="T31">
-        <v>0.01689397918067306</v>
+        <v>0.00756963113547007</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.8672823333333333</v>
+        <v>1.608984</v>
       </c>
       <c r="N32">
-        <v>2.601847</v>
+        <v>4.826952</v>
       </c>
       <c r="O32">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="P32">
-        <v>0.02330657204704962</v>
+        <v>0.03199254812111173</v>
       </c>
       <c r="Q32">
-        <v>36.71209354854044</v>
+        <v>376.871578969392</v>
       </c>
       <c r="R32">
-        <v>330.408841936864</v>
+        <v>3391.844210724528</v>
       </c>
       <c r="S32">
-        <v>0.001219262628013877</v>
+        <v>0.00585081135908158</v>
       </c>
       <c r="T32">
-        <v>0.001219262628013877</v>
+        <v>0.00585081135908158</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.557081</v>
       </c>
       <c r="O33">
-        <v>0.03186327428311168</v>
+        <v>0.02357597197220777</v>
       </c>
       <c r="P33">
-        <v>0.03186327428311169</v>
+        <v>0.02357597197220776</v>
       </c>
       <c r="Q33">
-        <v>50.19045717589688</v>
+        <v>277.7244797528593</v>
       </c>
       <c r="R33">
-        <v>451.7141145830719</v>
+        <v>2499.520317775733</v>
       </c>
       <c r="S33">
-        <v>0.001666898909935223</v>
+        <v>0.004311584188111518</v>
       </c>
       <c r="T33">
-        <v>0.001666898909935223</v>
+        <v>0.004311584188111517</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.21723233333333</v>
+        <v>28.890029</v>
       </c>
       <c r="N34">
-        <v>48.651697</v>
+        <v>86.670087</v>
       </c>
       <c r="O34">
-        <v>0.4358074403843606</v>
+        <v>0.5744405432265413</v>
       </c>
       <c r="P34">
-        <v>0.4358074403843607</v>
+        <v>0.5744405432265411</v>
       </c>
       <c r="Q34">
-        <v>686.4760501133403</v>
+        <v>6766.898145476601</v>
       </c>
       <c r="R34">
-        <v>6178.284451020064</v>
+        <v>60902.08330928941</v>
       </c>
       <c r="S34">
-        <v>0.02279887938897055</v>
+        <v>0.1050539407709438</v>
       </c>
       <c r="T34">
-        <v>0.02279887938897055</v>
+        <v>0.1050539407709438</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.522545</v>
+        <v>0.2739456666666667</v>
       </c>
       <c r="N35">
-        <v>1.567635</v>
+        <v>0.821837</v>
       </c>
       <c r="O35">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722453</v>
       </c>
       <c r="P35">
-        <v>0.01404240836258882</v>
+        <v>0.005447052253722452</v>
       </c>
       <c r="Q35">
-        <v>22.11934935834667</v>
+        <v>64.16616694043533</v>
       </c>
       <c r="R35">
-        <v>199.07414422512</v>
+        <v>577.495502463918</v>
       </c>
       <c r="S35">
-        <v>0.0007346161284143667</v>
+        <v>0.0009961593268202229</v>
       </c>
       <c r="T35">
-        <v>0.0007346161284143668</v>
+        <v>0.0009961593268202229</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.413711999999999</v>
+        <v>7.406498999999999</v>
       </c>
       <c r="N36">
-        <v>22.241136</v>
+        <v>22.219497</v>
       </c>
       <c r="O36">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611026</v>
       </c>
       <c r="P36">
-        <v>0.1992294852818897</v>
+        <v>0.1472685717611025</v>
       </c>
       <c r="Q36">
-        <v>313.8227057385813</v>
+        <v>1734.820838967461</v>
       </c>
       <c r="R36">
-        <v>2824.404351647232</v>
+        <v>15613.38755070715</v>
       </c>
       <c r="S36">
-        <v>0.0104225136717778</v>
+        <v>0.02693254157917441</v>
       </c>
       <c r="T36">
-        <v>0.0104225136717778</v>
+        <v>0.0269325415791744</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.00545633333333</v>
+        <v>10.92731033333333</v>
       </c>
       <c r="N37">
-        <v>33.016369</v>
+        <v>32.781931</v>
       </c>
       <c r="O37">
-        <v>0.2957508196409994</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="P37">
-        <v>0.2957508196409995</v>
+        <v>0.2172753126653143</v>
       </c>
       <c r="Q37">
-        <v>465.8613774603697</v>
+        <v>2559.498850959292</v>
       </c>
       <c r="R37">
-        <v>4192.752397143327</v>
+        <v>23035.48965863363</v>
       </c>
       <c r="S37">
-        <v>0.0154719415993392</v>
+        <v>0.03973540533807433</v>
       </c>
       <c r="T37">
-        <v>0.01547194159933921</v>
+        <v>0.03973540533807433</v>
       </c>
     </row>
   </sheetData>
